--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHRUV\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA441D0E-70A6-4901-B02A-22F312258786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0020FDBB-F7EF-47D8-9D89-2728523A9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{53F23C42-3F19-43C2-B6E1-4BC37BFDF10B}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>https://www.codechef.com/users/coderabhi002</t>
   </si>
   <si>
-    <t>https://www.codechef.com/users/shrey_mak07</t>
+    <t>https://www.codechef.com/users/yashesh_07</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DHRUV\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0020FDBB-F7EF-47D8-9D89-2728523A9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5389AF3-329C-479D-BA0F-03C1250E6440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{53F23C42-3F19-43C2-B6E1-4BC37BFDF10B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>all</t>
   </si>
@@ -63,25 +63,40 @@
     <t>Name (First &amp; Last Name)</t>
   </si>
   <si>
-    <t>CodeChef</t>
-  </si>
-  <si>
-    <t>Shreyash Makwana</t>
-  </si>
-  <si>
-    <t>202211046@diu.iiitvadodara.ac.in</t>
-  </si>
-  <si>
-    <t>Abhijeet Yadav</t>
-  </si>
-  <si>
-    <t>202311002@diu.iiitvadodara.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.codechef.com/users/coderabhi002</t>
-  </si>
-  <si>
     <t>https://www.codechef.com/users/yashesh_07</t>
+  </si>
+  <si>
+    <t>Saurabh Jaiswar</t>
+  </si>
+  <si>
+    <t>202211078@diu.iiitvadodara.ac.in</t>
+  </si>
+  <si>
+    <t>CodeChef, LeetCode, CodeForces</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/users/sasaurabh11</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/sasaurabh11/</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/profile/sasaurabh11</t>
+  </si>
+  <si>
+    <t>Yashesh Bhavsar</t>
+  </si>
+  <si>
+    <t>202011017@diu.iiitvadodara.ac.in</t>
+  </si>
+  <si>
+    <t>CodeChef, LeetCode, CodeForces, HackerRank</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/ForgottenSemicolon/</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/profile/yashesh_07</t>
   </si>
 </sst>
 </file>
@@ -155,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,6 +185,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB531945-6861-4DC4-BAEE-335DBFD80595}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,20 +553,24 @@
       <c r="A2" s="2">
         <v>45181.486134259256</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
@@ -559,19 +579,23 @@
         <v>45181.624155092592</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="3"/>
     </row>
@@ -764,10 +788,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{88114477-B77E-49BB-9A90-1CB70F3B21E5}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5E227CF5-3630-401B-9581-93ED94A43CD4}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{ED211C2D-277D-4467-8FD1-3746BEE3800A}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{C4286C58-F93F-4CE3-8AD4-8ECE678BEC30}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{E85F67C8-1D88-4CD9-AA26-170DF1BD132E}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{7BD9D6D4-DCE9-4873-B51F-8CD6DB28B87D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>